--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDDF4C-3851-4752-AE85-2E1535E78FB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A3650-B2AA-417C-987F-E467233AEE59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
   </bookViews>
@@ -1587,7 +1587,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A3650-B2AA-417C-987F-E467233AEE59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F9685-5886-4093-8C5C-4E3275A5AEB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="9" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="Binary_Data" sheetId="12" r:id="rId4"/>
     <sheet name="Structured_Annotations" sheetId="15" r:id="rId5"/>
     <sheet name="Tag_Annotation" sheetId="2" r:id="rId6"/>
-    <sheet name="Unit" sheetId="13" r:id="rId7"/>
-    <sheet name="size" sheetId="14" r:id="rId8"/>
+    <sheet name="size" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
   <si>
     <t>English Attribution</t>
   </si>
@@ -281,10 +280,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:tagAnnotationValue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[tagAnnoation:1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -338,18 +333,6 @@
   </si>
   <si>
     <t>pixelType:uint8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -360,63 +343,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -459,10 +385,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -490,10 +412,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/tagannotation/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:pixelType</t>
   </si>
   <si>
@@ -574,6 +492,17 @@
   </si>
   <si>
     <t>[structuredAnnotation:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -581,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,13 +539,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -666,11 +588,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,14 +916,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1009,7 +931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1017,7 +939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1025,7 +947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1033,7 +955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1041,7 +963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1049,7 +971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1057,39 +979,39 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1097,7 +1019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -1105,12 +1027,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1125,19 +1047,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1095,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1217,12 +1139,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>71</v>
@@ -1249,20 +1171,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1195,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>31</v>
@@ -1303,7 +1225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1242,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1329,37 +1251,37 @@
         <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1373,13 +1295,13 @@
         <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -1397,27 +1319,27 @@
         <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1451,17 +1373,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1409,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1502,7 +1424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1516,10 +1438,10 @@
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1545,70 +1467,70 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
@@ -1627,19 +1549,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1653,16 +1575,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1597,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1687,16 +1609,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1710,69 +1632,69 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1782,188 +1704,85 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB40206-1E74-4764-AFAD-FCEF1C1D1400}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9229898E-7CF1-4F26-859E-43B59A307F00}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>118</v>
+      <c r="D5" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F9685-5886-4093-8C5C-4E3275A5AEB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE0ADA-3BC6-45DF-8139-CA6322FEB741}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
   <si>
     <t>English Attribution</t>
   </si>
@@ -248,14 +248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"6x6x1x8-swatch.tif"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -272,19 +264,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[tagAnnoation:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>tag annotation value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[tagAnnoation:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[tagAnnoation:2]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -503,6 +483,50 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tagAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/tagannotation/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/tagannotation/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/tagannotation/tagAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tagAnnotation:tagAnnotation3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tagAnnotation:tagAnnotation1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tagAnnotation:tagAnnotation2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -912,14 +936,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -981,31 +1005,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>60</v>
@@ -1021,23 +1045,48 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1055,7 +1104,7 @@
     <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1144,19 +1193,19 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1229,7 @@
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1195,7 +1244,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>31</v>
@@ -1251,34 +1300,34 @@
         <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -1295,13 +1344,13 @@
         <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -1319,27 +1368,27 @@
         <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1357,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1425,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -1438,18 +1487,18 @@
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1471,7 +1520,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -1479,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1498,7 +1547,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1506,34 +1555,34 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1551,13 +1600,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1575,13 +1624,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1609,13 +1658,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1632,69 +1681,69 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1725,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1739,13 +1788,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1754,10 +1803,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1765,24 +1814,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/tagannotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE0ADA-3BC6-45DF-8139-CA6322FEB741}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D95EA76-62A9-4065-9EEC-8E4D0CD47F18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>English Attribution</t>
   </si>
@@ -66,9 +66,6 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>:TagAnnotation</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
@@ -84,27 +81,9 @@
     <t>annotation</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -138,21 +117,12 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -162,18 +132,9 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -280,23 +241,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"This is the description of the sample tagse"@en</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>namespace</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:namespace</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -392,44 +341,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-  </si>
-  <si>
-    <t>:sizeC</t>
-  </si>
-  <si>
-    <t>:sizeT</t>
-  </si>
-  <si>
-    <t>:sizeX</t>
-  </si>
-  <si>
-    <t>:sizeY</t>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Image:0</t>
   </si>
   <si>
@@ -467,10 +378,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -527,6 +434,126 @@
   </si>
   <si>
     <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TagAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:namespace</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -949,138 +976,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1101,8 +1128,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1113,22 +1140,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1150,19 +1177,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1170,42 +1197,42 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1223,11 +1250,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -1238,40 +1265,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -1297,37 +1324,37 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -1335,60 +1362,60 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1406,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1424,29 +1451,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1464,13 +1491,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1478,27 +1505,27 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1528,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1547,7 +1574,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1555,34 +1582,34 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1618,19 +1645,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1652,19 +1679,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1672,78 +1699,78 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1774,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1788,13 +1815,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1803,10 +1830,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1814,24 +1841,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
